--- a/GATT-Table.xlsx
+++ b/GATT-Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jogas\Google Drive\Bachelor\_Software\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8685CCF-7799-408B-A70C-B6AFA53461B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30179503-88F9-4338-A7FA-FA6ED2157D10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Graphic" sheetId="2" r:id="rId1"/>
@@ -519,9 +519,6 @@
     <t>VALUE</t>
   </si>
   <si>
-    <t>Nordic Blinks Service</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -585,7 +582,10 @@
     <t>ON/OFF</t>
   </si>
   <si>
-    <t>Peripheral Preferred ConNection Parameters</t>
+    <t>Nordic Blinky Service</t>
+  </si>
+  <si>
+    <t>Peripheral Preferred Connection Parameters</t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1566,7 @@
   <dimension ref="B2:L39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:M19"/>
+      <selection activeCell="S21" sqref="S21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1596,7 +1596,7 @@
     <row r="5" spans="2:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:12" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="41" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F6" s="39" t="s">
         <v>42</v>
@@ -1628,19 +1628,19 @@
         <v>7</v>
       </c>
       <c r="F8" s="46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="44"/>
       <c r="H8" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" s="44"/>
       <c r="J8" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K8" s="44"/>
       <c r="L8" s="46" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1657,19 +1657,19 @@
         <v>6</v>
       </c>
       <c r="F10" s="46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G10" s="44"/>
       <c r="H10" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="44"/>
       <c r="J10" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K10" s="44"/>
       <c r="L10" s="47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1683,19 +1683,19 @@
     </row>
     <row r="12" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G12" s="44"/>
       <c r="H12" s="46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I12" s="44"/>
       <c r="J12" s="46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12" s="44"/>
       <c r="L12" s="46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1709,22 +1709,22 @@
     </row>
     <row r="14" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G14" s="44"/>
       <c r="H14" s="46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" s="44"/>
       <c r="J14" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K14" s="44"/>
       <c r="L14" s="46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1741,19 +1741,19 @@
         <v>6</v>
       </c>
       <c r="F16" s="46" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G16" s="44"/>
       <c r="H16" s="46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I16" s="44"/>
       <c r="J16" s="46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K16" s="44"/>
       <c r="L16" s="48" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="6:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1767,19 +1767,19 @@
     </row>
     <row r="18" spans="6:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F18" s="46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" s="44"/>
       <c r="H18" s="46" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="44"/>
       <c r="J18" s="46" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K18" s="44"/>
       <c r="L18" s="46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="6:12" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1982,8 +1982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
